--- a/hw10.xlsx
+++ b/hw10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\GR6250-2019\hw10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780A36F-25B9-42AB-A378-22BE69545FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F51498D-BCC7-41D9-8260-F34B9FE429E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{000E4CA8-DEE4-4954-8287-48A9D77F9308}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>u</t>
   </si>
@@ -82,17 +82,23 @@
     <t>fu</t>
   </si>
   <si>
+    <t>t - u</t>
+  </si>
+  <si>
     <t>phi</t>
   </si>
   <si>
-    <t>t - u</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>monte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +106,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,11 +136,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -129,9 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,23 +480,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5DED03-26E6-446D-AFDB-196685F844EA}">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,7 +508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -478,19 +519,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1</v>
       </c>
@@ -498,26 +536,20 @@
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" aca="1" ref="E6:E8" ca="1">_xll.XLL.LMM.ADVANCE(u, t, f, sigma, alpha)</f>
-        <v>1.017559592118328E-2</v>
-      </c>
-      <c r="F6" cm="1">
-        <f t="array" aca="1" ref="F6:F10" ca="1">_xll.XLL.LMM.TO_FUTURES(t, f, sigma)</f>
-        <v>1.005E-2</v>
-      </c>
-      <c r="G6" cm="1">
-        <f t="array" aca="1" ref="G6:G10" ca="1">_xll.XLL.LMM.TO_FORWARDS(t,_xlfn.ANCHORARRAY( F6), sigma)</f>
-        <v>0.01</v>
-      </c>
-      <c r="H6" cm="1">
-        <f t="array" ref="H6:H8">_xll.XLL.SKIP(u, t)-u</f>
-        <v>0.70000000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+        <f t="array" aca="1" ref="E6:E10" ca="1">_xll.XLL.LMM.TO_FUTURES(t, f, sigma)</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2</v>
       </c>
@@ -525,25 +557,30 @@
         <v>0.01</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
         <f ca="1"/>
-        <v>1.0404781490077225E-2</v>
-      </c>
-      <c r="F7">
-        <f ca="1"/>
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <f ca="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="H7">
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" aca="1" ref="F7:F10" ca="1">_xll.XLL.LMM.ADVANCE(u, t, f, sigma, alpha)</f>
+        <v>1.0689243775974877E-2</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7:G10">_xll.XLL.SKIP(u, t)-u</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J7" s="3" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">_xll.MONTE.MEAN(F7)</f>
+        <v>1.0599419150881141E-2</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>3</v>
       </c>
@@ -551,25 +588,28 @@
         <v>0.01</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
         <f ca="1"/>
-        <v>1.0634779365390297E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="F8">
         <f ca="1"/>
-        <v>1.0450000000000001E-2</v>
+        <v>1.1117547064284135E-2</v>
       </c>
       <c r="G8">
-        <f ca="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="H8">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J8" s="3" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">_xll.MONTE.MEAN(F8)</f>
+        <v>1.0999378686978829E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>4</v>
       </c>
@@ -577,18 +617,28 @@
         <v>0.01</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <f ca="1"/>
+        <v>1.32E-2</v>
       </c>
       <c r="F9">
         <f ca="1"/>
-        <v>1.0800000000000001E-2</v>
+        <v>1.1552599484280491E-2</v>
       </c>
       <c r="G9">
-        <f ca="1"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J9" s="3" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">_xll.MONTE.MEAN(F9)</f>
+        <v>1.1399326447727776E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>5</v>
       </c>
@@ -596,15 +646,25 @@
         <v>0.01</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <f ca="1"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F10">
         <f ca="1"/>
-        <v>1.125E-2</v>
+        <v>1.1995655104975552E-2</v>
       </c>
       <c r="G10">
-        <f ca="1"/>
-        <v>0.01</v>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1.18E-2</v>
+      </c>
+      <c r="J10" s="3" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">_xll.MONTE.MEAN(F10)</f>
+        <v>1.1799266286597372E-2</v>
       </c>
     </row>
   </sheetData>
